--- a/Code/Results/Cases/Case_0_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.411895504077961</v>
+        <v>0.409822305049147</v>
       </c>
       <c r="D2">
-        <v>0.04665909584994665</v>
+        <v>0.02680039096887299</v>
       </c>
       <c r="E2">
-        <v>0.1843725442718096</v>
+        <v>0.1732949958148993</v>
       </c>
       <c r="F2">
-        <v>0.5116777841622877</v>
+        <v>0.7228684317892018</v>
       </c>
       <c r="G2">
-        <v>0.4072052299930817</v>
+        <v>0.5640597308142645</v>
       </c>
       <c r="H2">
-        <v>0.2995538567227811</v>
+        <v>0.685969125652548</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.270102077890556</v>
+        <v>1.155165454496455</v>
       </c>
       <c r="L2">
-        <v>0.1700923136106525</v>
+        <v>0.1513846915122627</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8847770586327215</v>
+        <v>1.080579344301839</v>
       </c>
       <c r="O2">
-        <v>1.440456671884789</v>
+        <v>2.475141034919062</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3677329880932234</v>
+        <v>0.4005930589711113</v>
       </c>
       <c r="D3">
-        <v>0.04195246261689789</v>
+        <v>0.02518600170974139</v>
       </c>
       <c r="E3">
-        <v>0.1640777542636869</v>
+        <v>0.1689905923355326</v>
       </c>
       <c r="F3">
-        <v>0.4718641750868997</v>
+        <v>0.7196873029621642</v>
       </c>
       <c r="G3">
-        <v>0.3759174655531723</v>
+        <v>0.5623814605014701</v>
       </c>
       <c r="H3">
-        <v>0.291296411738557</v>
+        <v>0.6895562012097685</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.846311082370562</v>
+        <v>1.024494891603979</v>
       </c>
       <c r="L3">
-        <v>0.1509288883964928</v>
+        <v>0.1472670776854841</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8695127075814213</v>
+        <v>1.078060015429742</v>
       </c>
       <c r="O3">
-        <v>1.356428885459906</v>
+        <v>2.478780715286888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3410762652039523</v>
+        <v>0.3951462069826164</v>
       </c>
       <c r="D4">
-        <v>0.03905225417578606</v>
+        <v>0.02418663106747942</v>
       </c>
       <c r="E4">
-        <v>0.1518291818254589</v>
+        <v>0.1664433690756795</v>
       </c>
       <c r="F4">
-        <v>0.4485109512201078</v>
+        <v>0.7182409409800457</v>
       </c>
       <c r="G4">
-        <v>0.3577509268370278</v>
+        <v>0.5617985221254713</v>
       </c>
       <c r="H4">
-        <v>0.2868647525152568</v>
+        <v>0.6921168147124206</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.586148177389475</v>
+        <v>0.94414387705379</v>
       </c>
       <c r="L4">
-        <v>0.139364574812582</v>
+        <v>0.1448246339277901</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8609990115726873</v>
+        <v>1.076913104609574</v>
       </c>
       <c r="O4">
-        <v>1.308374794301557</v>
+        <v>2.482702871458741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3303197605945627</v>
+        <v>0.3929819528108283</v>
       </c>
       <c r="D5">
-        <v>0.03786764148497213</v>
+        <v>0.02377736113879081</v>
       </c>
       <c r="E5">
-        <v>0.1468867843395429</v>
+        <v>0.1654294373887062</v>
       </c>
       <c r="F5">
-        <v>0.4392512947332037</v>
+        <v>0.7177788594551657</v>
       </c>
       <c r="G5">
-        <v>0.3505929180733318</v>
+        <v>0.5616732716595578</v>
       </c>
       <c r="H5">
-        <v>0.2852114028910506</v>
+        <v>0.6932503280300892</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.480113537645167</v>
+        <v>0.9113725382619009</v>
       </c>
       <c r="L5">
-        <v>0.1346984407968321</v>
+        <v>0.1438508936184277</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8577376555009124</v>
+        <v>1.076546652857004</v>
       </c>
       <c r="O5">
-        <v>1.289628392604385</v>
+        <v>2.484724958417587</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.328539814544115</v>
+        <v>0.3926259272550681</v>
       </c>
       <c r="D6">
-        <v>0.0376707666768894</v>
+        <v>0.02370928104290471</v>
       </c>
       <c r="E6">
-        <v>0.1460689367854116</v>
+        <v>0.165262529878472</v>
       </c>
       <c r="F6">
-        <v>0.4377287540760619</v>
+        <v>0.7177098172823051</v>
       </c>
       <c r="G6">
-        <v>0.3494186361048435</v>
+        <v>0.5616592498511181</v>
       </c>
       <c r="H6">
-        <v>0.2849458563242422</v>
+        <v>0.6934439850219007</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.46250481423877</v>
+        <v>0.9059292778800057</v>
       </c>
       <c r="L6">
-        <v>0.1339263120400886</v>
+        <v>0.1436905079873725</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8572084537907045</v>
+        <v>1.07649190974881</v>
       </c>
       <c r="O6">
-        <v>1.286564534443073</v>
+        <v>2.485086304027817</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3409307804588764</v>
+        <v>0.3951167947521128</v>
       </c>
       <c r="D7">
-        <v>0.03903628942848769</v>
+        <v>0.02418111964769309</v>
       </c>
       <c r="E7">
-        <v>0.1517623342450314</v>
+        <v>0.1664295973043792</v>
       </c>
       <c r="F7">
-        <v>0.4483850545991501</v>
+        <v>0.7182341938388745</v>
       </c>
       <c r="G7">
-        <v>0.3576534220262602</v>
+        <v>0.5617963785582845</v>
       </c>
       <c r="H7">
-        <v>0.2868418472643697</v>
+        <v>0.692131737109662</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.584718257941546</v>
+        <v>0.9437020203241389</v>
       </c>
       <c r="L7">
-        <v>0.1393014634030294</v>
+        <v>0.1448114143626142</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8609541954868405</v>
+        <v>1.076907753410836</v>
       </c>
       <c r="O7">
-        <v>1.308118658064757</v>
+        <v>2.482728426881494</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3965672810141712</v>
+        <v>0.4065944535715005</v>
       </c>
       <c r="D8">
-        <v>0.04503828824916667</v>
+        <v>0.02624545177954474</v>
       </c>
       <c r="E8">
-        <v>0.1773280406942348</v>
+        <v>0.1717909846883288</v>
       </c>
       <c r="F8">
-        <v>0.4977123387310129</v>
+        <v>0.7216662961505946</v>
       </c>
       <c r="G8">
-        <v>0.3961895998697713</v>
+        <v>0.5633880369920092</v>
       </c>
       <c r="H8">
-        <v>0.2965692642339803</v>
+        <v>0.6871316095711393</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.123951829464716</v>
+        <v>1.110136180542042</v>
       </c>
       <c r="L8">
-        <v>0.1634400871857054</v>
+        <v>0.1499471333265276</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.879330798194502</v>
+        <v>1.079627870538175</v>
       </c>
       <c r="O8">
-        <v>1.410715961381584</v>
+        <v>2.476045456989937</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5097568522331244</v>
+        <v>0.4308455853532678</v>
       </c>
       <c r="D9">
-        <v>0.05673476802045485</v>
+        <v>0.03022814260130247</v>
       </c>
       <c r="E9">
-        <v>0.2293633643332598</v>
+        <v>0.1830639234750748</v>
       </c>
       <c r="F9">
-        <v>0.6039612924747289</v>
+        <v>0.7324258551401854</v>
       </c>
       <c r="G9">
-        <v>0.4808865910100479</v>
+        <v>0.570071775119473</v>
       </c>
       <c r="H9">
-        <v>0.3210910549781403</v>
+        <v>0.6801690585705842</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.183159993286779</v>
+        <v>1.435489165050626</v>
       </c>
       <c r="L9">
-        <v>0.2125925385841327</v>
+        <v>0.1606995269594762</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9225623506111731</v>
+        <v>1.088121828608777</v>
       </c>
       <c r="O9">
-        <v>1.642573986955398</v>
+        <v>2.476355842343594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5960707848612401</v>
+        <v>0.4497259934568945</v>
       </c>
       <c r="D10">
-        <v>0.06529696486413883</v>
+        <v>0.03311329647414851</v>
       </c>
       <c r="E10">
-        <v>0.2690742369972341</v>
+        <v>0.1918100994285581</v>
       </c>
       <c r="F10">
-        <v>0.6890848265284006</v>
+        <v>0.7427997487478706</v>
       </c>
       <c r="G10">
-        <v>0.5499253469213272</v>
+        <v>0.5771717146191406</v>
       </c>
       <c r="H10">
-        <v>0.3429912443685907</v>
+        <v>0.6767887420727874</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.964621236210576</v>
+        <v>1.673815348929224</v>
       </c>
       <c r="L10">
-        <v>0.2501313629098121</v>
+        <v>0.169016474302623</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9592820818157151</v>
+        <v>1.096272485190113</v>
       </c>
       <c r="O10">
-        <v>1.835440295518083</v>
+        <v>2.48480461052759</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6361807372748558</v>
+        <v>0.4585462275133239</v>
       </c>
       <c r="D11">
-        <v>0.06918869701033259</v>
+        <v>0.03441673972177739</v>
       </c>
       <c r="E11">
-        <v>0.2875384289400031</v>
+        <v>0.1958900027451875</v>
       </c>
       <c r="F11">
-        <v>0.729643829175501</v>
+        <v>0.7480580097939793</v>
       </c>
       <c r="G11">
-        <v>0.58310993997992</v>
+        <v>0.5808809412073828</v>
       </c>
       <c r="H11">
-        <v>0.3539323316022376</v>
+        <v>0.6756282085597576</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.32136956825326</v>
+        <v>1.782064933183221</v>
       </c>
       <c r="L11">
-        <v>0.2675952066767024</v>
+        <v>0.1728911118761687</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9772003750911438</v>
+        <v>1.100392038037967</v>
       </c>
       <c r="O11">
-        <v>1.92898422428317</v>
+        <v>2.490442600034868</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6515050420880186</v>
+        <v>0.4619194639578552</v>
       </c>
       <c r="D12">
-        <v>0.07066221261667494</v>
+        <v>0.03490899880754483</v>
       </c>
       <c r="E12">
-        <v>0.2945946893270204</v>
+        <v>0.1974495114996344</v>
       </c>
       <c r="F12">
-        <v>0.745293379439488</v>
+        <v>0.7501268855562415</v>
       </c>
       <c r="G12">
-        <v>0.5959585827594651</v>
+        <v>0.5823547508307456</v>
       </c>
       <c r="H12">
-        <v>0.358228275943631</v>
+        <v>0.6752430175499455</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.456688676061219</v>
+        <v>1.823030405006477</v>
       </c>
       <c r="L12">
-        <v>0.274270866919224</v>
+        <v>0.1743714674328629</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9841724492206936</v>
+        <v>1.102010930418658</v>
       </c>
       <c r="O12">
-        <v>1.965324183208992</v>
+        <v>2.492836294661799</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6481984167824919</v>
+        <v>0.4611915015330226</v>
       </c>
       <c r="D13">
-        <v>0.07034486897074999</v>
+        <v>0.03480304145685409</v>
       </c>
       <c r="E13">
-        <v>0.2930720246104954</v>
+        <v>0.1971129970964896</v>
       </c>
       <c r="F13">
-        <v>0.7419095912992759</v>
+        <v>0.7496778584681749</v>
       </c>
       <c r="G13">
-        <v>0.5931783947082323</v>
+        <v>0.5820342573970265</v>
       </c>
       <c r="H13">
-        <v>0.3572960700494576</v>
+        <v>0.6753235606891366</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.427534456950639</v>
+        <v>1.814208965324781</v>
       </c>
       <c r="L13">
-        <v>0.2728302512016541</v>
+        <v>0.1740520631507252</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9826623765619189</v>
+        <v>1.101659657866762</v>
       </c>
       <c r="O13">
-        <v>1.957455576768695</v>
+        <v>2.492309253170902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6374386768212048</v>
+        <v>0.4588230806593856</v>
       </c>
       <c r="D14">
-        <v>0.06930992638564248</v>
+        <v>0.03445726492270751</v>
       </c>
       <c r="E14">
-        <v>0.2881176226722886</v>
+        <v>0.1960180132110452</v>
       </c>
       <c r="F14">
-        <v>0.7309253401230364</v>
+        <v>0.7482266595786058</v>
       </c>
       <c r="G14">
-        <v>0.5841611871934589</v>
+        <v>0.5810008039072869</v>
       </c>
       <c r="H14">
-        <v>0.3542826269691517</v>
+        <v>0.6755954306332796</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.332497544057787</v>
+        <v>1.785435727933816</v>
       </c>
       <c r="L14">
-        <v>0.2681431242035615</v>
+        <v>0.1730126388008131</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9777701550088551</v>
+        <v>1.100524046430152</v>
       </c>
       <c r="O14">
-        <v>1.931955068682441</v>
+        <v>2.490634342082416</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6308661093294177</v>
+        <v>0.4573766765340963</v>
       </c>
       <c r="D15">
-        <v>0.06867597666011704</v>
+        <v>0.03424529320793823</v>
       </c>
       <c r="E15">
-        <v>0.2850914899392123</v>
+        <v>0.195349196693634</v>
       </c>
       <c r="F15">
-        <v>0.7242358586748736</v>
+        <v>0.7473478801791629</v>
       </c>
       <c r="G15">
-        <v>0.5786754820399835</v>
+        <v>0.5803768043110153</v>
       </c>
       <c r="H15">
-        <v>0.3524570778255196</v>
+        <v>0.6757690285473643</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.274315570661713</v>
+        <v>1.767807793609563</v>
       </c>
       <c r="L15">
-        <v>0.2652804713296888</v>
+        <v>0.1723776691815431</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9747982323996212</v>
+        <v>1.099836114118048</v>
       </c>
       <c r="O15">
-        <v>1.916457207967454</v>
+        <v>2.489642121625792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.593467686293252</v>
+        <v>0.4491542211434876</v>
       </c>
       <c r="D16">
-        <v>0.06504258799374441</v>
+        <v>0.03302792930129783</v>
       </c>
       <c r="E16">
-        <v>0.2678761692272502</v>
+        <v>0.191545503504571</v>
       </c>
       <c r="F16">
-        <v>0.6864733845056321</v>
+        <v>0.7424669713736165</v>
       </c>
       <c r="G16">
-        <v>0.5477946741876281</v>
+        <v>0.5769389779236462</v>
       </c>
       <c r="H16">
-        <v>0.3422969219534764</v>
+        <v>0.6768721789651124</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.941335994448252</v>
+        <v>1.666737434625759</v>
       </c>
       <c r="L16">
-        <v>0.2489984210042309</v>
+        <v>0.1687650929307694</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9581365363515175</v>
+        <v>1.096011522426281</v>
       </c>
       <c r="O16">
-        <v>1.829450701188733</v>
+        <v>2.484472322138942</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5707510906791242</v>
+        <v>0.4441692350106621</v>
       </c>
       <c r="D17">
-        <v>0.06281297228737515</v>
+        <v>0.03227878351727043</v>
       </c>
       <c r="E17">
-        <v>0.2574221449296701</v>
+        <v>0.1892379740895507</v>
       </c>
       <c r="F17">
-        <v>0.6637959629406538</v>
+        <v>0.7396108895676718</v>
       </c>
       <c r="G17">
-        <v>0.5293241431420768</v>
+        <v>0.5749529646595022</v>
       </c>
       <c r="H17">
-        <v>0.3363229463987381</v>
+        <v>0.6776455605740068</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.73741702711601</v>
+        <v>1.604689768437481</v>
       </c>
       <c r="L17">
-        <v>0.2391137648613437</v>
+        <v>0.1665722554726017</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9482345391940044</v>
+        <v>1.093770505543887</v>
       </c>
       <c r="O17">
-        <v>1.777618879733609</v>
+        <v>2.481760920507611</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.557763773095985</v>
+        <v>0.4413237917781032</v>
       </c>
       <c r="D18">
-        <v>0.06153023251437162</v>
+        <v>0.0318470466361731</v>
       </c>
       <c r="E18">
-        <v>0.2514464327963211</v>
+        <v>0.1879202729709135</v>
       </c>
       <c r="F18">
-        <v>0.6509235994309108</v>
+        <v>0.7380188822768048</v>
       </c>
       <c r="G18">
-        <v>0.5188660795029278</v>
+        <v>0.5738557726721325</v>
       </c>
       <c r="H18">
-        <v>0.332978208510383</v>
+        <v>0.6781258897539999</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.62024366759448</v>
+        <v>1.568986092007208</v>
       </c>
       <c r="L18">
-        <v>0.2334643842865773</v>
+        <v>0.1653195792519995</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9426526878211661</v>
+        <v>1.092520308262976</v>
       </c>
       <c r="O18">
-        <v>1.748348034375397</v>
+        <v>2.480370271797796</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5533795926568246</v>
+        <v>0.4403641181670537</v>
       </c>
       <c r="D19">
-        <v>0.06109585544282226</v>
+        <v>0.03170072316184047</v>
       </c>
       <c r="E19">
-        <v>0.2494293432205836</v>
+        <v>0.1874757591332781</v>
       </c>
       <c r="F19">
-        <v>0.6465938397565907</v>
+        <v>0.7374885649009428</v>
       </c>
       <c r="G19">
-        <v>0.5153528383344934</v>
+        <v>0.5734920219736921</v>
       </c>
       <c r="H19">
-        <v>0.3318610710964833</v>
+        <v>0.6782946170454238</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.580589287255123</v>
+        <v>1.556894851716322</v>
       </c>
       <c r="L19">
-        <v>0.2315575876390881</v>
+        <v>0.1648969193126817</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9407819079072937</v>
+        <v>1.092103682268018</v>
       </c>
       <c r="O19">
-        <v>1.738528030655971</v>
+        <v>2.479928407176402</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5731610713447139</v>
+        <v>0.4446976407700731</v>
       </c>
       <c r="D20">
-        <v>0.06305035032298889</v>
+        <v>0.03235861933987394</v>
       </c>
       <c r="E20">
-        <v>0.2585310993484171</v>
+        <v>0.1894826284735416</v>
       </c>
       <c r="F20">
-        <v>0.6661921185407493</v>
+        <v>0.7399096722554219</v>
       </c>
       <c r="G20">
-        <v>0.5312730271320589</v>
+        <v>0.5751597084915971</v>
       </c>
       <c r="H20">
-        <v>0.336949348862106</v>
+        <v>0.67755955833006</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.75911228547568</v>
+        <v>1.611296470007801</v>
       </c>
       <c r="L20">
-        <v>0.2401622286980967</v>
+        <v>0.1668047981738852</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9492767897374392</v>
+        <v>1.094005054647766</v>
       </c>
       <c r="O20">
-        <v>1.783079855095622</v>
+        <v>2.48203207091197</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6405952781271651</v>
+        <v>0.4595178427069868</v>
       </c>
       <c r="D21">
-        <v>0.06961391724473742</v>
+        <v>0.0345588641010437</v>
       </c>
       <c r="E21">
-        <v>0.289571049312471</v>
+        <v>0.196339242110227</v>
       </c>
       <c r="F21">
-        <v>0.73414356756345</v>
+        <v>0.7486508022056597</v>
       </c>
       <c r="G21">
-        <v>0.5868018745825481</v>
+        <v>0.581302473911947</v>
       </c>
       <c r="H21">
-        <v>0.3551635008012681</v>
+        <v>0.6755141024473801</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.360405667123757</v>
+        <v>1.793887857979712</v>
       </c>
       <c r="L21">
-        <v>0.269518094466477</v>
+        <v>0.1733175870277819</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9792019477026628</v>
+        <v>1.100856006718175</v>
       </c>
       <c r="O21">
-        <v>1.939419620026456</v>
+        <v>2.491119277583721</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6854647118142623</v>
+        <v>0.4693972115210556</v>
       </c>
       <c r="D22">
-        <v>0.07390257072228223</v>
+        <v>0.03598910578196524</v>
       </c>
       <c r="E22">
-        <v>0.31023562965607</v>
+        <v>0.2009051651290079</v>
       </c>
       <c r="F22">
-        <v>0.7802622591850792</v>
+        <v>0.7548165257718153</v>
       </c>
       <c r="G22">
-        <v>0.624752792276027</v>
+        <v>0.5857206339665453</v>
       </c>
       <c r="H22">
-        <v>0.3679643594573179</v>
+        <v>0.6744936696159556</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.754728413018995</v>
+        <v>1.913067502239244</v>
       </c>
       <c r="L22">
-        <v>0.2890715878132966</v>
+        <v>0.1776505105521693</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9998549121346656</v>
+        <v>1.105676718694468</v>
       </c>
       <c r="O22">
-        <v>2.0469835188633</v>
+        <v>2.498566554189694</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6614391970306315</v>
+        <v>0.4641067253822087</v>
       </c>
       <c r="D23">
-        <v>0.07161363346419591</v>
+        <v>0.0352264769525874</v>
       </c>
       <c r="E23">
-        <v>0.299169556685932</v>
+        <v>0.1984604992926364</v>
       </c>
       <c r="F23">
-        <v>0.755482160657948</v>
+        <v>0.7514842707270617</v>
       </c>
       <c r="G23">
-        <v>0.6043365002553287</v>
+        <v>0.5833255705977081</v>
       </c>
       <c r="H23">
-        <v>0.3610460085808711</v>
+        <v>0.6750093312748362</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.544132033811934</v>
+        <v>1.849473999570989</v>
       </c>
       <c r="L23">
-        <v>0.2785994849096625</v>
+        <v>0.175330954340069</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9887275705544454</v>
+        <v>1.103072508750145</v>
       </c>
       <c r="O23">
-        <v>1.989053129209253</v>
+        <v>2.494453582596492</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5720712935116978</v>
+        <v>0.4444586846940695</v>
       </c>
       <c r="D24">
-        <v>0.06294303454912864</v>
+        <v>0.03232252881073094</v>
       </c>
       <c r="E24">
-        <v>0.2580296342745001</v>
+        <v>0.1893719924155874</v>
       </c>
       <c r="F24">
-        <v>0.665108304067914</v>
+        <v>0.73977443689121</v>
       </c>
       <c r="G24">
-        <v>0.5303914375299996</v>
+        <v>0.5750661007186437</v>
       </c>
       <c r="H24">
-        <v>0.3366658735652237</v>
+        <v>0.6775983287361811</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.749303668282778</v>
+        <v>1.608309678621254</v>
       </c>
       <c r="L24">
-        <v>0.2396881145470928</v>
+        <v>0.1666996406529933</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9488052436289394</v>
+        <v>1.093898896003083</v>
       </c>
       <c r="O24">
-        <v>1.780609309764998</v>
+        <v>2.481908960011054</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4786329106218261</v>
+        <v>0.4240983358572805</v>
       </c>
       <c r="D25">
-        <v>0.05357708752330836</v>
+        <v>0.02915783318123744</v>
       </c>
       <c r="E25">
-        <v>0.2150510437896287</v>
+        <v>0.1799328978943464</v>
       </c>
       <c r="F25">
-        <v>0.5740740505271305</v>
+        <v>0.729082455931227</v>
       </c>
       <c r="G25">
-        <v>0.456872846392784</v>
+        <v>0.5678804342313981</v>
       </c>
       <c r="H25">
-        <v>0.3138182621418224</v>
+        <v>0.6817480691147466</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.896211527290291</v>
+        <v>1.347591145369449</v>
       </c>
       <c r="L25">
-        <v>0.1990694179984729</v>
+        <v>0.1577175942206992</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9100402433833494</v>
+        <v>1.085487406993835</v>
       </c>
       <c r="O25">
-        <v>1.576187712640206</v>
+        <v>2.474831271567865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.409822305049147</v>
+        <v>0.4118955040779326</v>
       </c>
       <c r="D2">
-        <v>0.02680039096887299</v>
+        <v>0.04665909585006034</v>
       </c>
       <c r="E2">
-        <v>0.1732949958148993</v>
+        <v>0.1843725442718167</v>
       </c>
       <c r="F2">
-        <v>0.7228684317892018</v>
+        <v>0.5116777841622948</v>
       </c>
       <c r="G2">
-        <v>0.5640597308142645</v>
+        <v>0.4072052299930391</v>
       </c>
       <c r="H2">
-        <v>0.685969125652548</v>
+        <v>0.2995538567227811</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.155165454496455</v>
+        <v>3.27010207789067</v>
       </c>
       <c r="L2">
-        <v>0.1513846915122627</v>
+        <v>0.1700923136107164</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.080579344301839</v>
+        <v>0.8847770586327499</v>
       </c>
       <c r="O2">
-        <v>2.475141034919062</v>
+        <v>1.440456671884874</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4005930589711113</v>
+        <v>0.3677329880932518</v>
       </c>
       <c r="D3">
-        <v>0.02518600170974139</v>
+        <v>0.04195246261674157</v>
       </c>
       <c r="E3">
-        <v>0.1689905923355326</v>
+        <v>0.164077754263694</v>
       </c>
       <c r="F3">
-        <v>0.7196873029621642</v>
+        <v>0.4718641750869139</v>
       </c>
       <c r="G3">
-        <v>0.5623814605014701</v>
+        <v>0.3759174655531723</v>
       </c>
       <c r="H3">
-        <v>0.6895562012097685</v>
+        <v>0.2912964117385712</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.024494891603979</v>
+        <v>2.846311082370534</v>
       </c>
       <c r="L3">
-        <v>0.1472670776854841</v>
+        <v>0.1509288883965496</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078060015429742</v>
+        <v>0.8695127075813787</v>
       </c>
       <c r="O3">
-        <v>2.478780715286888</v>
+        <v>1.356428885459849</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3951462069826164</v>
+        <v>0.341076265203867</v>
       </c>
       <c r="D4">
-        <v>0.02418663106747942</v>
+        <v>0.03905225417562974</v>
       </c>
       <c r="E4">
-        <v>0.1664433690756795</v>
+        <v>0.1518291818254873</v>
       </c>
       <c r="F4">
-        <v>0.7182409409800457</v>
+        <v>0.4485109512201149</v>
       </c>
       <c r="G4">
-        <v>0.5617985221254713</v>
+        <v>0.3577509268371415</v>
       </c>
       <c r="H4">
-        <v>0.6921168147124206</v>
+        <v>0.2868647525152426</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.94414387705379</v>
+        <v>2.586148177389418</v>
       </c>
       <c r="L4">
-        <v>0.1448246339277901</v>
+        <v>0.1393645748125465</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.076913104609574</v>
+        <v>0.8609990115726873</v>
       </c>
       <c r="O4">
-        <v>2.482702871458741</v>
+        <v>1.308374794301443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3929819528108283</v>
+        <v>0.3303197605943069</v>
       </c>
       <c r="D5">
-        <v>0.02377736113879081</v>
+        <v>0.03786764148502186</v>
       </c>
       <c r="E5">
-        <v>0.1654294373887062</v>
+        <v>0.1468867843395429</v>
       </c>
       <c r="F5">
-        <v>0.7177788594551657</v>
+        <v>0.4392512947332108</v>
       </c>
       <c r="G5">
-        <v>0.5616732716595578</v>
+        <v>0.3505929180732466</v>
       </c>
       <c r="H5">
-        <v>0.6932503280300892</v>
+        <v>0.2852114028910506</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9113725382619009</v>
+        <v>2.480113537645053</v>
       </c>
       <c r="L5">
-        <v>0.1438508936184277</v>
+        <v>0.1346984407968961</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.076546652857004</v>
+        <v>0.8577376555008982</v>
       </c>
       <c r="O5">
-        <v>2.484724958417587</v>
+        <v>1.2896283926043</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3926259272550681</v>
+        <v>0.3285398145440581</v>
       </c>
       <c r="D6">
-        <v>0.02370928104290471</v>
+        <v>0.03767076667672598</v>
       </c>
       <c r="E6">
-        <v>0.165262529878472</v>
+        <v>0.1460689367854293</v>
       </c>
       <c r="F6">
-        <v>0.7177098172823051</v>
+        <v>0.4377287540760761</v>
       </c>
       <c r="G6">
-        <v>0.5616592498511181</v>
+        <v>0.3494186361048577</v>
       </c>
       <c r="H6">
-        <v>0.6934439850219007</v>
+        <v>0.2849458563241285</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9059292778800057</v>
+        <v>2.46250481423877</v>
       </c>
       <c r="L6">
-        <v>0.1436905079873725</v>
+        <v>0.1339263120400105</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07649190974881</v>
+        <v>0.8572084537906903</v>
       </c>
       <c r="O6">
-        <v>2.485086304027817</v>
+        <v>1.286564534443045</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3951167947521128</v>
+        <v>0.3409307804593311</v>
       </c>
       <c r="D7">
-        <v>0.02418111964769309</v>
+        <v>0.03903628942851611</v>
       </c>
       <c r="E7">
-        <v>0.1664295973043792</v>
+        <v>0.1517623342450136</v>
       </c>
       <c r="F7">
-        <v>0.7182341938388745</v>
+        <v>0.4483850545991572</v>
       </c>
       <c r="G7">
-        <v>0.5617963785582845</v>
+        <v>0.3576534220263312</v>
       </c>
       <c r="H7">
-        <v>0.692131737109662</v>
+        <v>0.2868418472643555</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9437020203241389</v>
+        <v>2.584718257941518</v>
       </c>
       <c r="L7">
-        <v>0.1448114143626142</v>
+        <v>0.1393014634029797</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.076907753410836</v>
+        <v>0.8609541954868405</v>
       </c>
       <c r="O7">
-        <v>2.482728426881494</v>
+        <v>1.308118658064785</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4065944535715005</v>
+        <v>0.3965672810141427</v>
       </c>
       <c r="D8">
-        <v>0.02624545177954474</v>
+        <v>0.04503828824906719</v>
       </c>
       <c r="E8">
-        <v>0.1717909846883288</v>
+        <v>0.1773280406942419</v>
       </c>
       <c r="F8">
-        <v>0.7216662961505946</v>
+        <v>0.4977123387310272</v>
       </c>
       <c r="G8">
-        <v>0.5633880369920092</v>
+        <v>0.3961895998697713</v>
       </c>
       <c r="H8">
-        <v>0.6871316095711393</v>
+        <v>0.2965692642339661</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.110136180542042</v>
+        <v>3.123951829464716</v>
       </c>
       <c r="L8">
-        <v>0.1499471333265276</v>
+        <v>0.1634400871856698</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.079627870538175</v>
+        <v>0.879330798194502</v>
       </c>
       <c r="O8">
-        <v>2.476045456989937</v>
+        <v>1.410715961381584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4308455853532678</v>
+        <v>0.5097568522327833</v>
       </c>
       <c r="D9">
-        <v>0.03022814260130247</v>
+        <v>0.05673476802056143</v>
       </c>
       <c r="E9">
-        <v>0.1830639234750748</v>
+        <v>0.2293633643332527</v>
       </c>
       <c r="F9">
-        <v>0.7324258551401854</v>
+        <v>0.6039612924747146</v>
       </c>
       <c r="G9">
-        <v>0.570071775119473</v>
+        <v>0.4808865910100195</v>
       </c>
       <c r="H9">
-        <v>0.6801690585705842</v>
+        <v>0.3210910549781545</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.435489165050626</v>
+        <v>4.183159993286836</v>
       </c>
       <c r="L9">
-        <v>0.1606995269594762</v>
+        <v>0.2125925385840333</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.088121828608777</v>
+        <v>0.9225623506111731</v>
       </c>
       <c r="O9">
-        <v>2.476355842343594</v>
+        <v>1.642573986955398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4497259934568945</v>
+        <v>0.5960707848613254</v>
       </c>
       <c r="D10">
-        <v>0.03311329647414851</v>
+        <v>0.06529696486419567</v>
       </c>
       <c r="E10">
-        <v>0.1918100994285581</v>
+        <v>0.2690742369972483</v>
       </c>
       <c r="F10">
-        <v>0.7427997487478706</v>
+        <v>0.6890848265284006</v>
       </c>
       <c r="G10">
-        <v>0.5771717146191406</v>
+        <v>0.5499253469214409</v>
       </c>
       <c r="H10">
-        <v>0.6767887420727874</v>
+        <v>0.3429912443684771</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.673815348929224</v>
+        <v>4.964621236210576</v>
       </c>
       <c r="L10">
-        <v>0.169016474302623</v>
+        <v>0.2501313629098121</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.096272485190113</v>
+        <v>0.9592820818156582</v>
       </c>
       <c r="O10">
-        <v>2.48480461052759</v>
+        <v>1.835440295518111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4585462275133239</v>
+        <v>0.6361807372749979</v>
       </c>
       <c r="D11">
-        <v>0.03441673972177739</v>
+        <v>0.06918869701014785</v>
       </c>
       <c r="E11">
-        <v>0.1958900027451875</v>
+        <v>0.2875384289399747</v>
       </c>
       <c r="F11">
-        <v>0.7480580097939793</v>
+        <v>0.729643829175501</v>
       </c>
       <c r="G11">
-        <v>0.5808809412073828</v>
+        <v>0.5831099399798916</v>
       </c>
       <c r="H11">
-        <v>0.6756282085597576</v>
+        <v>0.3539323316023513</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.782064933183221</v>
+        <v>5.321369568253317</v>
       </c>
       <c r="L11">
-        <v>0.1728911118761687</v>
+        <v>0.2675952066766314</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.100392038037967</v>
+        <v>0.9772003750911011</v>
       </c>
       <c r="O11">
-        <v>2.490442600034868</v>
+        <v>1.928984224283113</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4619194639578552</v>
+        <v>0.6515050420879334</v>
       </c>
       <c r="D12">
-        <v>0.03490899880754483</v>
+        <v>0.07066221261683836</v>
       </c>
       <c r="E12">
-        <v>0.1974495114996344</v>
+        <v>0.2945946893270204</v>
       </c>
       <c r="F12">
-        <v>0.7501268855562415</v>
+        <v>0.745293379439488</v>
       </c>
       <c r="G12">
-        <v>0.5823547508307456</v>
+        <v>0.5959585827594651</v>
       </c>
       <c r="H12">
-        <v>0.6752430175499455</v>
+        <v>0.3582282759435174</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.823030405006477</v>
+        <v>5.456688676061219</v>
       </c>
       <c r="L12">
-        <v>0.1743714674328629</v>
+        <v>0.2742708669193377</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.102010930418658</v>
+        <v>0.9841724492206367</v>
       </c>
       <c r="O12">
-        <v>2.492836294661799</v>
+        <v>1.965324183208992</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4611915015330226</v>
+        <v>0.6481984167822361</v>
       </c>
       <c r="D13">
-        <v>0.03480304145685409</v>
+        <v>0.07034486897086367</v>
       </c>
       <c r="E13">
-        <v>0.1971129970964896</v>
+        <v>0.2930720246104883</v>
       </c>
       <c r="F13">
-        <v>0.7496778584681749</v>
+        <v>0.7419095912992617</v>
       </c>
       <c r="G13">
-        <v>0.5820342573970265</v>
+        <v>0.5931783947082891</v>
       </c>
       <c r="H13">
-        <v>0.6753235606891366</v>
+        <v>0.3572960700494576</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.814208965324781</v>
+        <v>5.427534456950639</v>
       </c>
       <c r="L13">
-        <v>0.1740520631507252</v>
+        <v>0.2728302512016114</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.101659657866762</v>
+        <v>0.9826623765618763</v>
       </c>
       <c r="O13">
-        <v>2.492309253170902</v>
+        <v>1.957455576768638</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4588230806593856</v>
+        <v>0.6374386768212048</v>
       </c>
       <c r="D14">
-        <v>0.03445726492270751</v>
+        <v>0.0693099263855359</v>
       </c>
       <c r="E14">
-        <v>0.1960180132110452</v>
+        <v>0.2881176226723241</v>
       </c>
       <c r="F14">
-        <v>0.7482266595786058</v>
+        <v>0.7309253401230364</v>
       </c>
       <c r="G14">
-        <v>0.5810008039072869</v>
+        <v>0.5841611871934589</v>
       </c>
       <c r="H14">
-        <v>0.6755954306332796</v>
+        <v>0.3542826269691517</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.785435727933816</v>
+        <v>5.332497544057787</v>
       </c>
       <c r="L14">
-        <v>0.1730126388008131</v>
+        <v>0.2681431242035472</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.100524046430152</v>
+        <v>0.9777701550087983</v>
       </c>
       <c r="O14">
-        <v>2.490634342082416</v>
+        <v>1.931955068682441</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4573766765340963</v>
+        <v>0.6308661093294461</v>
       </c>
       <c r="D15">
-        <v>0.03424529320793823</v>
+        <v>0.06867597666012415</v>
       </c>
       <c r="E15">
-        <v>0.195349196693634</v>
+        <v>0.2850914899392194</v>
       </c>
       <c r="F15">
-        <v>0.7473478801791629</v>
+        <v>0.7242358586748878</v>
       </c>
       <c r="G15">
-        <v>0.5803768043110153</v>
+        <v>0.578675482040083</v>
       </c>
       <c r="H15">
-        <v>0.6757690285473643</v>
+        <v>0.3524570778255196</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.767807793609563</v>
+        <v>5.274315570661827</v>
       </c>
       <c r="L15">
-        <v>0.1723776691815431</v>
+        <v>0.265280471329703</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.099836114118048</v>
+        <v>0.9747982323995501</v>
       </c>
       <c r="O15">
-        <v>2.489642121625792</v>
+        <v>1.916457207967454</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4491542211434876</v>
+        <v>0.593467686293252</v>
       </c>
       <c r="D16">
-        <v>0.03302792930129783</v>
+        <v>0.06504258799375151</v>
       </c>
       <c r="E16">
-        <v>0.191545503504571</v>
+        <v>0.2678761692272715</v>
       </c>
       <c r="F16">
-        <v>0.7424669713736165</v>
+        <v>0.6864733845056321</v>
       </c>
       <c r="G16">
-        <v>0.5769389779236462</v>
+        <v>0.5477946741876707</v>
       </c>
       <c r="H16">
-        <v>0.6768721789651124</v>
+        <v>0.3422969219533485</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.666737434625759</v>
+        <v>4.941335994448195</v>
       </c>
       <c r="L16">
-        <v>0.1687650929307694</v>
+        <v>0.2489984210040745</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.096011522426281</v>
+        <v>0.9581365363515033</v>
       </c>
       <c r="O16">
-        <v>2.484472322138942</v>
+        <v>1.829450701188676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4441692350106621</v>
+        <v>0.5707510906790105</v>
       </c>
       <c r="D17">
-        <v>0.03227878351727043</v>
+        <v>0.06281297228753857</v>
       </c>
       <c r="E17">
-        <v>0.1892379740895507</v>
+        <v>0.2574221449296985</v>
       </c>
       <c r="F17">
-        <v>0.7396108895676718</v>
+        <v>0.6637959629406538</v>
       </c>
       <c r="G17">
-        <v>0.5749529646595022</v>
+        <v>0.5293241431420626</v>
       </c>
       <c r="H17">
-        <v>0.6776455605740068</v>
+        <v>0.336322946398866</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.604689768437481</v>
+        <v>4.73741702711601</v>
       </c>
       <c r="L17">
-        <v>0.1665722554726017</v>
+        <v>0.2391137648614432</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.093770505543887</v>
+        <v>0.9482345391939901</v>
       </c>
       <c r="O17">
-        <v>2.481760920507611</v>
+        <v>1.777618879733581</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4413237917781032</v>
+        <v>0.5577637730963261</v>
       </c>
       <c r="D18">
-        <v>0.0318470466361731</v>
+        <v>0.06153023251436451</v>
       </c>
       <c r="E18">
-        <v>0.1879202729709135</v>
+        <v>0.2514464327963069</v>
       </c>
       <c r="F18">
-        <v>0.7380188822768048</v>
+        <v>0.6509235994309108</v>
       </c>
       <c r="G18">
-        <v>0.5738557726721325</v>
+        <v>0.5188660795028994</v>
       </c>
       <c r="H18">
-        <v>0.6781258897539999</v>
+        <v>0.332978208510383</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.568986092007208</v>
+        <v>4.62024366759465</v>
       </c>
       <c r="L18">
-        <v>0.1653195792519995</v>
+        <v>0.2334643842864637</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.092520308262976</v>
+        <v>0.9426526878212087</v>
       </c>
       <c r="O18">
-        <v>2.480370271797796</v>
+        <v>1.748348034375454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4403641181670537</v>
+        <v>0.5533795926565972</v>
       </c>
       <c r="D19">
-        <v>0.03170072316184047</v>
+        <v>0.06109585544282226</v>
       </c>
       <c r="E19">
-        <v>0.1874757591332781</v>
+        <v>0.2494293432205836</v>
       </c>
       <c r="F19">
-        <v>0.7374885649009428</v>
+        <v>0.6465938397565907</v>
       </c>
       <c r="G19">
-        <v>0.5734920219736921</v>
+        <v>0.5153528383344224</v>
       </c>
       <c r="H19">
-        <v>0.6782946170454238</v>
+        <v>0.3318610710963696</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.556894851716322</v>
+        <v>4.580589287255123</v>
       </c>
       <c r="L19">
-        <v>0.1648969193126817</v>
+        <v>0.2315575876390312</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.092103682268018</v>
+        <v>0.9407819079072937</v>
       </c>
       <c r="O19">
-        <v>2.479928407176402</v>
+        <v>1.738528030655971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4446976407700731</v>
+        <v>0.5731610713448845</v>
       </c>
       <c r="D20">
-        <v>0.03235861933987394</v>
+        <v>0.06305035032303863</v>
       </c>
       <c r="E20">
-        <v>0.1894826284735416</v>
+        <v>0.2585310993484242</v>
       </c>
       <c r="F20">
-        <v>0.7399096722554219</v>
+        <v>0.6661921185407493</v>
       </c>
       <c r="G20">
-        <v>0.5751597084915971</v>
+        <v>0.5312730271320589</v>
       </c>
       <c r="H20">
-        <v>0.67755955833006</v>
+        <v>0.336949348862106</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.611296470007801</v>
+        <v>4.759112285475567</v>
       </c>
       <c r="L20">
-        <v>0.1668047981738852</v>
+        <v>0.2401622286980825</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.094005054647766</v>
+        <v>0.949276789737425</v>
       </c>
       <c r="O20">
-        <v>2.48203207091197</v>
+        <v>1.783079855095565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4595178427069868</v>
+        <v>0.6405952781271651</v>
       </c>
       <c r="D21">
-        <v>0.0345588641010437</v>
+        <v>0.06961391724485821</v>
       </c>
       <c r="E21">
-        <v>0.196339242110227</v>
+        <v>0.2895710493124923</v>
       </c>
       <c r="F21">
-        <v>0.7486508022056597</v>
+        <v>0.73414356756345</v>
       </c>
       <c r="G21">
-        <v>0.581302473911947</v>
+        <v>0.5868018745824912</v>
       </c>
       <c r="H21">
-        <v>0.6755141024473801</v>
+        <v>0.3551635008012539</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.793887857979712</v>
+        <v>5.360405667123871</v>
       </c>
       <c r="L21">
-        <v>0.1733175870277819</v>
+        <v>0.2695180944664202</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.100856006718175</v>
+        <v>0.9792019477026486</v>
       </c>
       <c r="O21">
-        <v>2.491119277583721</v>
+        <v>1.939419620026456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4693972115210556</v>
+        <v>0.685464711814376</v>
       </c>
       <c r="D22">
-        <v>0.03598910578196524</v>
+        <v>0.07390257072240303</v>
       </c>
       <c r="E22">
-        <v>0.2009051651290079</v>
+        <v>0.3102356296560771</v>
       </c>
       <c r="F22">
-        <v>0.7548165257718153</v>
+        <v>0.780262259185065</v>
       </c>
       <c r="G22">
-        <v>0.5857206339665453</v>
+        <v>0.6247527922759417</v>
       </c>
       <c r="H22">
-        <v>0.6744936696159556</v>
+        <v>0.3679643594573179</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.913067502239244</v>
+        <v>5.754728413019052</v>
       </c>
       <c r="L22">
-        <v>0.1776505105521693</v>
+        <v>0.2890715878133534</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.105676718694468</v>
+        <v>0.9998549121346798</v>
       </c>
       <c r="O22">
-        <v>2.498566554189694</v>
+        <v>2.046983518863243</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4641067253822087</v>
+        <v>0.6614391970305746</v>
       </c>
       <c r="D23">
-        <v>0.0352264769525874</v>
+        <v>0.07161363346425276</v>
       </c>
       <c r="E23">
-        <v>0.1984604992926364</v>
+        <v>0.2991695566859107</v>
       </c>
       <c r="F23">
-        <v>0.7514842707270617</v>
+        <v>0.755482160657948</v>
       </c>
       <c r="G23">
-        <v>0.5833255705977081</v>
+        <v>0.6043365002553429</v>
       </c>
       <c r="H23">
-        <v>0.6750093312748362</v>
+        <v>0.3610460085809848</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.849473999570989</v>
+        <v>5.544132033811877</v>
       </c>
       <c r="L23">
-        <v>0.175330954340069</v>
+        <v>0.2785994849095914</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.103072508750145</v>
+        <v>0.9887275705544312</v>
       </c>
       <c r="O23">
-        <v>2.494453582596492</v>
+        <v>1.989053129209282</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4444586846940695</v>
+        <v>0.572071293511641</v>
       </c>
       <c r="D24">
-        <v>0.03232252881073094</v>
+        <v>0.06294303454912153</v>
       </c>
       <c r="E24">
-        <v>0.1893719924155874</v>
+        <v>0.2580296342745143</v>
       </c>
       <c r="F24">
-        <v>0.73977443689121</v>
+        <v>0.665108304067914</v>
       </c>
       <c r="G24">
-        <v>0.5750661007186437</v>
+        <v>0.5303914375299854</v>
       </c>
       <c r="H24">
-        <v>0.6775983287361811</v>
+        <v>0.3366658735652095</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.608309678621254</v>
+        <v>4.749303668282778</v>
       </c>
       <c r="L24">
-        <v>0.1666996406529933</v>
+        <v>0.2396881145471639</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.093898896003083</v>
+        <v>0.948805243628982</v>
       </c>
       <c r="O24">
-        <v>2.481908960011054</v>
+        <v>1.780609309764998</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4240983358572805</v>
+        <v>0.4786329106219682</v>
       </c>
       <c r="D25">
-        <v>0.02915783318123744</v>
+        <v>0.05357708752330126</v>
       </c>
       <c r="E25">
-        <v>0.1799328978943464</v>
+        <v>0.2150510437896287</v>
       </c>
       <c r="F25">
-        <v>0.729082455931227</v>
+        <v>0.5740740505271305</v>
       </c>
       <c r="G25">
-        <v>0.5678804342313981</v>
+        <v>0.4568728463927982</v>
       </c>
       <c r="H25">
-        <v>0.6817480691147466</v>
+        <v>0.3138182621418224</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.347591145369449</v>
+        <v>3.896211527290461</v>
       </c>
       <c r="L25">
-        <v>0.1577175942206992</v>
+        <v>0.1990694179983734</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.085487406993835</v>
+        <v>0.9100402433833494</v>
       </c>
       <c r="O25">
-        <v>2.474831271567865</v>
+        <v>1.576187712640262</v>
       </c>
     </row>
   </sheetData>
